--- a/biology/Botanique/Amaryllis_(plante)/Amaryllis_(plante).xlsx
+++ b/biology/Botanique/Amaryllis_(plante)/Amaryllis_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Amaryllis est un nom vernaculaire féminin donné à différentes plantes bulbeuses à fleurs de la famille des Amaryllidaceae, anciennement des Liliaceae dans la classification classique. Ce nom commun se rapporte à deux genres de fleurs : les Hippeastrum, souvent cultivées en pot comme plante d'intérieur, ou les Amaryllis vraies, au sens botanique.
@@ -512,7 +524,9 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amaryllis - plantes du genre Hippeastrum, originaires d'Amérique du Sud ou centrale, dont les hybrides sont appréciés pour leur floraison en fin d'hiver, comme plantes d'appartement ou de serre chaude.
 	Cultivars d'Hippeastrum :
@@ -557,10 +571,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Calendrier
-Le nom de l'amaryllis fut attribué au 24e jour du mois de vendémiaire du calendrier républicain ou révolutionnaire français[1], généralement chaque 15 octobre du grégorien.
-Littérature
-Amaryllis du grec Ἀμαρυλλίς signifiant « brillante » est le nom d'un personnage des Bucoliques de Virgile[2].
+          <t>Calendrier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de l'amaryllis fut attribué au 24e jour du mois de vendémiaire du calendrier républicain ou révolutionnaire français, généralement chaque 15 octobre du grégorien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amaryllis_(plante)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amaryllis_(plante)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Aspect culturels</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amaryllis du grec Ἀμαρυλλίς signifiant « brillante » est le nom d'un personnage des Bucoliques de Virgile.
 </t>
         </is>
       </c>
